--- a/PRODUCTION/QUANTITÉS INTERACTIVES/WRAP Quantité interactif.xlsx
+++ b/PRODUCTION/QUANTITÉS INTERACTIVES/WRAP Quantité interactif.xlsx
@@ -1076,7 +1076,7 @@
   <dimension ref="B1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1181,7 +1181,7 @@
     </row>
     <row r="6" spans="2:14" ht="39.950000000000003" customHeight="1" thickBot="1">
       <c r="B6" s="22">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>10</v>
@@ -1224,42 +1224,42 @@
       </c>
       <c r="E7" s="7">
         <f>B6</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F7" s="8" t="str">
         <f>B6*15&amp;("G")</f>
-        <v>480G</v>
+        <v>450G</v>
       </c>
       <c r="G7" s="8" t="str">
         <f>B6*10&amp;("G")</f>
-        <v>320G</v>
+        <v>300G</v>
       </c>
       <c r="H7" s="8" t="str">
         <f>B6*80&amp;("G")</f>
-        <v>2560G</v>
+        <v>2400G</v>
       </c>
       <c r="I7" s="8" t="str">
         <f>B6*40&amp;("G")</f>
-        <v>1280G</v>
+        <v>1200G</v>
       </c>
       <c r="J7" s="8" t="str">
         <f>B6*5&amp;("G")</f>
-        <v>160G</v>
+        <v>150G</v>
       </c>
       <c r="K7" s="8" t="str">
         <f>B6*10&amp;("G")</f>
-        <v>320G</v>
+        <v>300G</v>
       </c>
       <c r="L7" s="8" t="str">
         <f>B6*20&amp;("G")</f>
-        <v>640G</v>
+        <v>600G</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="18"/>
     </row>
     <row r="8" spans="2:14" ht="39.950000000000003" customHeight="1" thickBot="1">
       <c r="B8" s="22">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>18</v>
@@ -1306,43 +1306,43 @@
       </c>
       <c r="E9" s="7">
         <f>B8</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F9" s="8" t="str">
         <f>B8*40&amp;("G")</f>
-        <v>880G</v>
+        <v>960G</v>
       </c>
       <c r="G9" s="8" t="str">
         <f>B8*40&amp;("G")</f>
-        <v>880G</v>
+        <v>960G</v>
       </c>
       <c r="H9" s="8" t="str">
         <f>B8*10&amp;("G")</f>
-        <v>220G</v>
+        <v>240G</v>
       </c>
       <c r="I9" s="8" t="str">
         <f>B8*70&amp;("G")</f>
-        <v>1540G</v>
+        <v>1680G</v>
       </c>
       <c r="J9" s="8" t="str">
         <f>B8*15&amp;("G")</f>
-        <v>330G</v>
+        <v>360G</v>
       </c>
       <c r="K9" s="8" t="str">
         <f>B8*6&amp;(" FEUILLES")</f>
-        <v>132 FEUILLES</v>
+        <v>144 FEUILLES</v>
       </c>
       <c r="L9" s="8" t="str">
         <f>B8*6&amp;(" FEUILLES")</f>
-        <v>132 FEUILLES</v>
+        <v>144 FEUILLES</v>
       </c>
       <c r="M9" s="8" t="str">
         <f>B8*5&amp;("G")</f>
-        <v>110G</v>
+        <v>120G</v>
       </c>
       <c r="N9" s="20" t="str">
         <f>B8*6&amp;(" GOUTTES")</f>
-        <v>132 GOUTTES</v>
+        <v>144 GOUTTES</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="39.950000000000003" customHeight="1" thickBot="1">

--- a/PRODUCTION/QUANTITÉS INTERACTIVES/WRAP Quantité interactif.xlsx
+++ b/PRODUCTION/QUANTITÉS INTERACTIVES/WRAP Quantité interactif.xlsx
@@ -196,14 +196,35 @@
     <t>PAREMESAN</t>
   </si>
   <si>
-    <t>rt</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Attention:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Avoir un minimum de X sac de poulet sorti la veille de la préparation</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,6 +285,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -671,7 +715,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -773,6 +817,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1073,10 +1125,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:N14"/>
+  <dimension ref="B1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1108,7 +1160,7 @@
     <row r="3" spans="2:14" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:14" ht="39.950000000000003" customHeight="1" thickBot="1">
       <c r="B4" s="32">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>1</v>
@@ -1149,31 +1201,31 @@
       </c>
       <c r="E5" s="7">
         <f>B4</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F5" s="8" t="str">
         <f>B4*70&amp;("G")</f>
-        <v>2100G</v>
+        <v>2240G</v>
       </c>
       <c r="G5" s="8" t="str">
         <f>(B4*20)&amp;("G")</f>
-        <v>600G</v>
+        <v>640G</v>
       </c>
       <c r="H5" s="8" t="str">
         <f>(B4*15)&amp;("G")</f>
-        <v>450G</v>
+        <v>480G</v>
       </c>
       <c r="I5" s="8" t="str">
         <f>B4*5&amp;(" À ")&amp;(B4*8)</f>
-        <v>150 À 240</v>
+        <v>160 À 256</v>
       </c>
       <c r="J5" s="8" t="str">
         <f>B4*30&amp;("G")</f>
-        <v>900G</v>
+        <v>960G</v>
       </c>
       <c r="K5" s="8" t="str">
         <f>B4*40&amp;(" À ")&amp;B4*50&amp;("G")</f>
-        <v>1200 À 1500G</v>
+        <v>1280 À 1600G</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="11"/>
@@ -1181,7 +1233,7 @@
     </row>
     <row r="6" spans="2:14" ht="39.950000000000003" customHeight="1" thickBot="1">
       <c r="B6" s="22">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>10</v>
@@ -1224,42 +1276,42 @@
       </c>
       <c r="E7" s="7">
         <f>B6</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="8" t="str">
         <f>B6*15&amp;("G")</f>
-        <v>450G</v>
+        <v>480G</v>
       </c>
       <c r="G7" s="8" t="str">
         <f>B6*10&amp;("G")</f>
-        <v>300G</v>
+        <v>320G</v>
       </c>
       <c r="H7" s="8" t="str">
         <f>B6*80&amp;("G")</f>
-        <v>2400G</v>
+        <v>2560G</v>
       </c>
       <c r="I7" s="8" t="str">
         <f>B6*40&amp;("G")</f>
-        <v>1200G</v>
+        <v>1280G</v>
       </c>
       <c r="J7" s="8" t="str">
         <f>B6*5&amp;("G")</f>
-        <v>150G</v>
+        <v>160G</v>
       </c>
       <c r="K7" s="8" t="str">
         <f>B6*10&amp;("G")</f>
-        <v>300G</v>
+        <v>320G</v>
       </c>
       <c r="L7" s="8" t="str">
         <f>B6*20&amp;("G")</f>
-        <v>600G</v>
+        <v>640G</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="18"/>
     </row>
     <row r="8" spans="2:14" ht="39.950000000000003" customHeight="1" thickBot="1">
       <c r="B8" s="22">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>18</v>
@@ -1306,43 +1358,43 @@
       </c>
       <c r="E9" s="7">
         <f>B8</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F9" s="8" t="str">
         <f>B8*40&amp;("G")</f>
-        <v>960G</v>
+        <v>1040G</v>
       </c>
       <c r="G9" s="8" t="str">
         <f>B8*40&amp;("G")</f>
-        <v>960G</v>
+        <v>1040G</v>
       </c>
       <c r="H9" s="8" t="str">
         <f>B8*10&amp;("G")</f>
-        <v>240G</v>
+        <v>260G</v>
       </c>
       <c r="I9" s="8" t="str">
         <f>B8*70&amp;("G")</f>
-        <v>1680G</v>
+        <v>1820G</v>
       </c>
       <c r="J9" s="8" t="str">
         <f>B8*15&amp;("G")</f>
-        <v>360G</v>
+        <v>390G</v>
       </c>
       <c r="K9" s="8" t="str">
         <f>B8*6&amp;(" FEUILLES")</f>
-        <v>144 FEUILLES</v>
+        <v>156 FEUILLES</v>
       </c>
       <c r="L9" s="8" t="str">
         <f>B8*6&amp;(" FEUILLES")</f>
-        <v>144 FEUILLES</v>
+        <v>156 FEUILLES</v>
       </c>
       <c r="M9" s="8" t="str">
         <f>B8*5&amp;("G")</f>
-        <v>120G</v>
+        <v>130G</v>
       </c>
       <c r="N9" s="20" t="str">
         <f>B8*6&amp;(" GOUTTES")</f>
-        <v>144 GOUTTES</v>
+        <v>156 GOUTTES</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="39.950000000000003" customHeight="1" thickBot="1">
@@ -1413,14 +1465,26 @@
       <c r="M11" s="10"/>
       <c r="N11" s="18"/>
     </row>
-    <row r="14" spans="2:14">
-      <c r="L14" s="21" t="s">
+    <row r="12" spans="2:14" ht="21" customHeight="1">
+      <c r="B12" s="33"/>
+      <c r="C12" s="34" t="s">
         <v>35</v>
       </c>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="C12:N12"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="B8:B9"/>
